--- a/data_year/zb/教育/各级各类非学历教育学生情况/各级各类非学历教育注册生数.xlsx
+++ b/data_year/zb/教育/各级各类非学历教育学生情况/各级各类非学历教育注册生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,420 +493,280 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>366.9083</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5291.9128</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5624.8072</v>
+      </c>
+      <c r="E2" t="n">
+        <v>441.7171</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.197</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.4978</v>
+      </c>
       <c r="H2" t="n">
-        <v>5748.1382</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>4925.0045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>59.5048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>347.3839</v>
+      </c>
+      <c r="K2" t="n">
+        <v>263.6948</v>
+      </c>
+      <c r="L2" t="n">
+        <v>332.8944</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>411.9561</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5433.0763</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5838.2188</v>
+      </c>
+      <c r="E3" t="n">
+        <v>738.6464</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.2274</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.7112</v>
+      </c>
       <c r="H3" t="n">
-        <v>4882.7147</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>5021.1202</v>
+      </c>
+      <c r="I3" t="n">
+        <v>47.0423</v>
+      </c>
+      <c r="J3" t="n">
+        <v>483.0615</v>
+      </c>
+      <c r="K3" t="n">
+        <v>348.1616</v>
+      </c>
+      <c r="L3" t="n">
+        <v>405.1425</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>402.456</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4969.8098</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5364.6475</v>
+      </c>
+      <c r="E4" t="n">
+        <v>940.5896</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.7668</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.3796</v>
+      </c>
       <c r="H4" t="n">
-        <v>5078.6504</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>4567.3538</v>
+      </c>
+      <c r="I4" t="n">
+        <v>39.7381</v>
+      </c>
+      <c r="J4" t="n">
+        <v>580.782</v>
+      </c>
+      <c r="K4" t="n">
+        <v>343.9532</v>
+      </c>
+      <c r="L4" t="n">
+        <v>394.8377</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>398.6943</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4914.6542</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5593.2104</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1048.7492</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.2514</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.9321</v>
+      </c>
       <c r="H5" t="n">
-        <v>5067.7419</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+        <v>4515.9599</v>
+      </c>
+      <c r="I5" t="n">
+        <v>40.5329</v>
+      </c>
+      <c r="J5" t="n">
+        <v>627.0678</v>
+      </c>
+      <c r="K5" t="n">
+        <v>626.8398</v>
+      </c>
+      <c r="L5" t="n">
+        <v>678.5562</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>375.9486</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4613.6706</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5350.328</v>
+      </c>
+      <c r="E6" t="n">
+        <v>957.9299</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.4451</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.6427</v>
+      </c>
       <c r="H6" t="n">
-        <v>5019.5384</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>4237.722</v>
+      </c>
+      <c r="I6" t="n">
+        <v>37.6213</v>
+      </c>
+      <c r="J6" t="n">
+        <v>573.8963</v>
+      </c>
+      <c r="K6" t="n">
+        <v>688.9483</v>
+      </c>
+      <c r="L6" t="n">
+        <v>736.6574000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398.1864</v>
+        <v>343.1361</v>
       </c>
       <c r="C7" t="n">
-        <v>5411.2139</v>
+        <v>4561.5292</v>
       </c>
       <c r="D7" t="n">
-        <v>5700.6717</v>
+        <v>5287.3698</v>
       </c>
       <c r="E7" t="n">
-        <v>449.9302</v>
+        <v>1018.3253</v>
       </c>
       <c r="F7" t="n">
-        <v>3.0649</v>
+        <v>5.0048</v>
       </c>
       <c r="G7" t="n">
-        <v>6.8646</v>
+        <v>3.4799</v>
       </c>
       <c r="H7" t="n">
-        <v>5013.0275</v>
+        <v>4218.3931</v>
       </c>
       <c r="I7" t="n">
-        <v>69.6503</v>
+        <v>28.9818</v>
       </c>
       <c r="J7" t="n">
-        <v>367.2536</v>
+        <v>568.2437</v>
       </c>
       <c r="K7" t="n">
-        <v>209.878</v>
+        <v>688.3741</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4578</v>
+        <v>725.8406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.9083</v>
+        <v>331.8076</v>
       </c>
       <c r="C8" t="n">
-        <v>5291.9128</v>
+        <v>4538.3025</v>
       </c>
       <c r="D8" t="n">
-        <v>5624.8072</v>
+        <v>5465.6731</v>
       </c>
       <c r="E8" t="n">
-        <v>441.7171</v>
+        <v>942.7252999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>3.197</v>
+        <v>4.542</v>
       </c>
       <c r="G8" t="n">
-        <v>6.4978</v>
+        <v>1.2237</v>
       </c>
       <c r="H8" t="n">
-        <v>4925.0045</v>
+        <v>4206.4949</v>
       </c>
       <c r="I8" t="n">
-        <v>59.5048</v>
+        <v>23.0086</v>
       </c>
       <c r="J8" t="n">
-        <v>347.3839</v>
+        <v>586.8419</v>
       </c>
       <c r="K8" t="n">
-        <v>263.6948</v>
+        <v>898.5963</v>
       </c>
       <c r="L8" t="n">
-        <v>332.8944</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>411.9561</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5433.0763</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5838.2188</v>
-      </c>
-      <c r="E9" t="n">
-        <v>738.6464</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.2274</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6.7112</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5021.1202</v>
-      </c>
-      <c r="I9" t="n">
-        <v>47.0423</v>
-      </c>
-      <c r="J9" t="n">
-        <v>483.0615</v>
-      </c>
-      <c r="K9" t="n">
-        <v>348.1616</v>
-      </c>
-      <c r="L9" t="n">
-        <v>405.1425</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>402.456</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4969.8098</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5364.6475</v>
-      </c>
-      <c r="E10" t="n">
-        <v>940.5896</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.7668</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.3796</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4567.3538</v>
-      </c>
-      <c r="I10" t="n">
-        <v>39.7381</v>
-      </c>
-      <c r="J10" t="n">
-        <v>580.782</v>
-      </c>
-      <c r="K10" t="n">
-        <v>343.9532</v>
-      </c>
-      <c r="L10" t="n">
-        <v>394.8377</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>398.6943</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4914.6542</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5593.2104</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1048.7492</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4.2514</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.9321</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4515.9599</v>
-      </c>
-      <c r="I11" t="n">
-        <v>40.5329</v>
-      </c>
-      <c r="J11" t="n">
-        <v>627.0678</v>
-      </c>
-      <c r="K11" t="n">
-        <v>626.8398</v>
-      </c>
-      <c r="L11" t="n">
-        <v>678.5562</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>375.9486</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4613.6706</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5350.328</v>
-      </c>
-      <c r="E12" t="n">
-        <v>957.9299</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4.4451</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5.6427</v>
-      </c>
-      <c r="H12" t="n">
-        <v>4237.722</v>
-      </c>
-      <c r="I12" t="n">
-        <v>37.6213</v>
-      </c>
-      <c r="J12" t="n">
-        <v>573.8963</v>
-      </c>
-      <c r="K12" t="n">
-        <v>688.9483</v>
-      </c>
-      <c r="L12" t="n">
-        <v>736.6574000000001</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>343.1361</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4561.5292</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5287.3698</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1018.3253</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5.0048</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.4799</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4218.3931</v>
-      </c>
-      <c r="I13" t="n">
-        <v>28.9818</v>
-      </c>
-      <c r="J13" t="n">
-        <v>568.2437</v>
-      </c>
-      <c r="K13" t="n">
-        <v>688.3741</v>
-      </c>
-      <c r="L13" t="n">
-        <v>725.8406</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>331.8076</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4538.3025</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5465.6731</v>
-      </c>
-      <c r="E14" t="n">
-        <v>942.7252999999999</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4.542</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.2237</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4206.4949</v>
-      </c>
-      <c r="I14" t="n">
-        <v>23.0086</v>
-      </c>
-      <c r="J14" t="n">
-        <v>586.8419</v>
-      </c>
-      <c r="K14" t="n">
-        <v>898.5963</v>
-      </c>
-      <c r="L14" t="n">
         <v>927.3706</v>
       </c>
     </row>
